--- a/admin/app/config/static/user_template_twadmin.xlsx
+++ b/admin/app/config/static/user_template_twadmin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" activeTab="1"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
-    <sheet name="模板填写说明" sheetId="1" r:id="rId1"/>
-    <sheet name="用户数据" sheetId="2" r:id="rId2"/>
+    <sheet name="用户数据" sheetId="2" r:id="rId1"/>
+    <sheet name="模板填写说明" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,46 +30,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
+    <t>用户名称（必填）</t>
+  </si>
+  <si>
+    <t>密码（选填）</t>
+  </si>
+  <si>
+    <t>用户昵称（选填）</t>
+  </si>
+  <si>
+    <t>邮箱（选填）</t>
+  </si>
+  <si>
+    <t>手机号（选填）</t>
+  </si>
+  <si>
+    <t>性别（选填）</t>
+  </si>
+  <si>
+    <t>年龄（选填）</t>
+  </si>
+  <si>
+    <t>公司（选填）</t>
+  </si>
+  <si>
+    <t>部门（选填）</t>
+  </si>
+  <si>
+    <t>职位（选填）</t>
+  </si>
+  <si>
+    <t>公司ID（选填）</t>
+  </si>
+  <si>
+    <t>部门ID（选填）</t>
+  </si>
+  <si>
+    <t>资源库空间上限，以mb为单位（选填）</t>
+  </si>
+  <si>
     <t>注意：此页为说明页，写入数据无效</t>
-  </si>
-  <si>
-    <t>用户名称（必填）</t>
-  </si>
-  <si>
-    <t>密码（选填）</t>
-  </si>
-  <si>
-    <t>用户昵称（选填）</t>
-  </si>
-  <si>
-    <t>邮箱（选填）</t>
-  </si>
-  <si>
-    <t>手机号（选填）</t>
-  </si>
-  <si>
-    <t>性别（选填）</t>
-  </si>
-  <si>
-    <t>年龄（选填）</t>
-  </si>
-  <si>
-    <t>公司（选填）</t>
-  </si>
-  <si>
-    <t>部门（选填）</t>
-  </si>
-  <si>
-    <t>职位（选填）</t>
-  </si>
-  <si>
-    <t>公司ID（选填）</t>
-  </si>
-  <si>
-    <t>部门ID（选填）</t>
-  </si>
-  <si>
-    <t>资源库空间上限，以mb为单位（选填）</t>
   </si>
   <si>
     <t>calvin</t>
@@ -715,11 +715,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
@@ -1249,6 +1249,88 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.2727272727273" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="12" width="16.2727272727273" customWidth="1"/>
+    <col min="13" max="13" width="38.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 E$1:E$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"游客,普通用户,管理员"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"个人用户,企业用户"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1269,53 +1351,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="102" customHeight="1" spans="4:8">
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1340,7 +1422,6 @@
       <c r="G3">
         <v>18</v>
       </c>
-      <c r="H3"/>
       <c r="M3">
         <v>20480</v>
       </c>
@@ -1361,89 +1442,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.2727272727273" customWidth="1"/>
-    <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="14" customWidth="1"/>
-    <col min="11" max="12" width="16.2727272727273" customWidth="1"/>
-    <col min="13" max="13" width="38.8181818181818" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"男,女,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>"游客,普通用户,管理员"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"个人用户,企业用户"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
 </file>